--- a/CommandList.xlsx
+++ b/CommandList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CAU\Desktop\py\involution\git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36FB508F-6521-44E2-A96D-1ACE55B25100}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BE5FCB-AA63-44CC-A2FA-E54C3FF32392}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16560" windowHeight="6048" xr2:uid="{7A43BAD0-3F6D-4FE6-8C83-5DFE41D14871}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>指令表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +80,22 @@
   </si>
   <si>
     <t>CmdStr可能需要统一按list处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -478,7 +494,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -506,9 +522,6 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
       <c r="F3" t="s">
         <v>5</v>
       </c>
@@ -523,9 +536,6 @@
       <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
       <c r="F4" t="s">
         <v>6</v>
       </c>
@@ -540,23 +550,51 @@
       <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="D6">
-        <v>2</v>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="D7">
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9">
         <v>3</v>
       </c>
     </row>

--- a/CommandList.xlsx
+++ b/CommandList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CAU\Desktop\py\involution\git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BE5FCB-AA63-44CC-A2FA-E54C3FF32392}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10897F0F-22EE-49D9-83F5-92B217524BE3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16560" windowHeight="6048" xr2:uid="{7A43BAD0-3F6D-4FE6-8C83-5DFE41D14871}"/>
   </bookViews>
@@ -494,7 +494,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -556,7 +556,7 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -570,7 +570,7 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>

--- a/CommandList.xlsx
+++ b/CommandList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CAU\Desktop\py\involution\git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10897F0F-22EE-49D9-83F5-92B217524BE3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F717CF-BD01-4A69-B26F-DFF3448E3ED5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16560" windowHeight="6048" xr2:uid="{7A43BAD0-3F6D-4FE6-8C83-5DFE41D14871}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>指令表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,10 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CmdStr可能需要统一按list处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>路线</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -96,6 +92,38 @@
   </si>
   <si>
     <t>右</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CmdStr格式为list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒对面其超时了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路线</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -491,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9921AFCC-0263-467D-949E-2A86CACCB4F4}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -559,10 +587,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -573,10 +601,10 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
         <v>14</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -584,7 +612,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -592,15 +620,63 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G9">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>13</v>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>-1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>-2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/CommandList.xlsx
+++ b/CommandList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CAU\Desktop\py\involution\git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F717CF-BD01-4A69-B26F-DFF3448E3ED5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965A0113-6764-4B81-80DC-7E0144853339}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16560" windowHeight="6048" xr2:uid="{7A43BAD0-3F6D-4FE6-8C83-5DFE41D14871}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>指令表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,18 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>友方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>playerID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>骑士</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -83,18 +71,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>左</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>右</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>同步指令</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -124,6 +104,14 @@
   </si>
   <si>
     <t>路线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -522,7 +510,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -542,69 +530,55 @@
       <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -612,7 +586,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -620,7 +594,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -628,12 +602,12 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -644,18 +618,18 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -663,7 +637,7 @@
         <v>-1</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -671,12 +645,12 @@
         <v>-2</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
